--- a/resources/03 Sustantive.xlsx
+++ b/resources/03 Sustantive.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148015E-9AEE-9444-9F12-53AB8E826328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="6510" windowHeight="7665"/>
+    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="213">
   <si>
     <t>Categoria</t>
   </si>
@@ -650,13 +656,19 @@
     <t>Lehrer</t>
   </si>
   <si>
-    <t>traductor</t>
+    <t>traffict lights</t>
+  </si>
+  <si>
+    <t>Ampel</t>
+  </si>
+  <si>
+    <t>Semaforo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,7 +719,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,9 +794,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,6 +846,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,24 +1038,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C72" sqref="B72:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1032,7 +1078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -1052,7 +1098,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1069,7 +1115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -1106,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1126,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1146,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>68</v>
       </c>
@@ -1157,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1177,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -1197,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1214,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1234,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -1254,7 +1300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -1274,7 +1320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -1294,7 +1340,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -1314,7 +1360,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -1334,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1357,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -1377,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1428,7 +1474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1445,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -1459,7 +1505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -1479,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -1513,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -1533,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -1550,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -1570,7 +1616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -1590,7 +1636,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -1604,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -1621,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -1666,7 +1712,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1683,7 +1729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -1720,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>70</v>
       </c>
@@ -1734,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>36</v>
       </c>
@@ -1768,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>36</v>
       </c>
@@ -1802,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>159</v>
       </c>
@@ -1822,7 +1868,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>36</v>
       </c>
@@ -1839,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -1859,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -1879,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -1916,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -1936,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -1973,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -1993,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>36</v>
       </c>
@@ -2007,7 +2053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -2027,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -2044,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -2061,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -2098,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>171</v>
       </c>
@@ -2118,7 +2164,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -2138,7 +2184,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2158,7 +2204,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -2178,7 +2224,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -2198,7 +2244,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -2218,7 +2264,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -2238,7 +2284,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -2255,7 +2301,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -2272,7 +2318,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -2292,23 +2338,35 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>210</v>
       </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G71">
-    <sortState ref="A2:G60">
+  <autoFilter ref="A1:G71" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
       <sortCondition ref="C1:C59"/>
     </sortState>
   </autoFilter>
-  <sortState ref="C1:D4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:D4">
     <sortCondition ref="C1:C4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,12 +2375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/03 Sustantive.xlsx
+++ b/resources/03 Sustantive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C33F10-6BB2-BE46-936F-F5680968D4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AFAA7C-A167-E041-BCF1-7DE79D2B859C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="152">
   <si>
     <t>Deutsch</t>
   </si>
@@ -462,6 +462,24 @@
   </si>
   <si>
     <t>story</t>
+  </si>
+  <si>
+    <t>Süße</t>
+  </si>
+  <si>
+    <t>ˈzyːsə</t>
+  </si>
+  <si>
+    <t>sweetness</t>
+  </si>
+  <si>
+    <t>Spaß</t>
+  </si>
+  <si>
+    <t>ʃpaːs</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
 </sst>
 </file>
@@ -518,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F42BBD4C-6F91-9044-8D20-FB4A77AF9E8C}" name="Table2" displayName="Table2" ref="A1:D80" totalsRowShown="0">
-  <autoFilter ref="A1:D80" xr:uid="{2E8C5ADD-366A-994A-8EB8-4C6B421CEE0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F42BBD4C-6F91-9044-8D20-FB4A77AF9E8C}" name="Table2" displayName="Table2" ref="A1:D82" totalsRowShown="0">
+  <autoFilter ref="A1:D82" xr:uid="{2E8C5ADD-366A-994A-8EB8-4C6B421CEE0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -854,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1673,6 +1691,34 @@
       </c>
       <c r="D80" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/resources/03 Sustantive.xlsx
+++ b/resources/03 Sustantive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AFAA7C-A167-E041-BCF1-7DE79D2B859C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881285E-B605-6B43-9825-7D7EE185C634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$B$71</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="164">
   <si>
     <t>Deutsch</t>
   </si>
@@ -480,6 +488,42 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>Lachen</t>
+  </si>
+  <si>
+    <t>ˈlaxn</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>Lied</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liːt </t>
+  </si>
+  <si>
+    <t>Stelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈʃtɛlə </t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>Stille</t>
+  </si>
+  <si>
+    <t>ˈʃtɪlə/</t>
+  </si>
+  <si>
+    <t>silence</t>
   </si>
 </sst>
 </file>
@@ -536,10 +580,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F42BBD4C-6F91-9044-8D20-FB4A77AF9E8C}" name="Table2" displayName="Table2" ref="A1:D82" totalsRowShown="0">
-  <autoFilter ref="A1:D82" xr:uid="{2E8C5ADD-366A-994A-8EB8-4C6B421CEE0B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
-    <sortCondition ref="B1:B72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F42BBD4C-6F91-9044-8D20-FB4A77AF9E8C}" name="Table2" displayName="Table2" ref="A1:D86" totalsRowShown="0">
+  <autoFilter ref="A1:D86" xr:uid="{2E8C5ADD-366A-994A-8EB8-4C6B421CEE0B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
+    <sortCondition ref="B1:B84"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BDDA63A6-40CF-3548-B81D-733951C2F2E1}" name="Gender"/>
@@ -872,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1029,62 +1073,62 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,21 +1136,21 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,13 +1158,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1128,10 +1169,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,21 +1183,24 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,15 +1208,21 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1177,29 +1230,26 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1207,132 +1257,159 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
       <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
       <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1340,113 +1417,113 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1454,59 +1531,56 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
       <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,37 +1588,43 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>109</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1552,34 +1632,40 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,54 +1673,48 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1642,41 +1722,29 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1684,41 +1752,73 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" t="s">
-        <v>151</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
